--- a/biology/Médecine/Colectomie/Colectomie.xlsx
+++ b/biology/Médecine/Colectomie/Colectomie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une colectomie est une opération chirurgicale qui correspond à l'ablation d'une partie ou de la totalité du côlon. Elle peut aussi être accompagnée de l'ablation du rectum.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une préparation (vidange colique mécanique ou par laxatifs) n'est pas nécessaire[1], de même qu'une antibiothérapie pré-opératoire[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une préparation (vidange colique mécanique ou par laxatifs) n'est pas nécessaire, de même qu'une antibiothérapie pré-opératoire. 
 </t>
         </is>
       </c>
@@ -569,6 +585,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -594,7 +612,9 @@
           <t>Suites</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Après une colectomie, souvent un appareillage (iléostomie ou colostomie, anciennement appelé anus artificiel) doit être mis en place. Cet appareillage permet de dévier les selles sur une poche en plastique qui est collée sur le ventre et doit être renouvelée plusieurs fois par semaine.
 La plupart du temps, l'iléostomie est temporaire.
